--- a/docs/resultados_instancia_pequeña.xlsx
+++ b/docs/resultados_instancia_pequeña.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\Documents\resolucion_problemas_metaheuristicas_trabajo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFF1F4-2AF5-478B-BC4C-BF82BEAF796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D368103-3EA3-4DCA-A1E9-E7FB2A2EF861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,319 +563,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>267.39999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>270.8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>0.31</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G3" s="6">
         <v>1.27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="1">
         <v>182</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>186.8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
         <v>0.22</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>0.13</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G4" s="6">
         <v>2.64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="1">
         <v>284.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>293.39999999999998</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="1">
         <v>0.53</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G5" s="6">
         <v>3.24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="1">
         <v>221</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>226.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>0.63</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>0.26</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G6" s="6">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="1">
         <v>311</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="1">
         <v>320</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>0.52</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G7" s="6">
         <v>2.89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <v>255.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>264.89999999999998</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>0.2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G8" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="1">
         <v>343.6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>353.2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>0.53</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>0.16</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G9" s="6">
         <v>2.79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C10" s="1">
         <v>251.2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>266.7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>1.69</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>0.27</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G10" s="6">
         <v>6.17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C11" s="1">
         <v>409</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D11" s="1">
         <v>416.9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E11" s="1">
         <v>1.92</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F11" s="1">
         <v>0.22</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G11" s="6">
         <v>1.93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C12" s="1">
         <v>303</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D12" s="1">
         <v>315.60000000000002</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E12" s="1">
         <v>6.99</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F12" s="1">
         <v>0.4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G12" s="6">
         <v>4.16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C13" s="1">
         <v>486.8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D13" s="1">
         <v>497.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E13" s="1">
         <v>0.41</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="1">
         <v>0.47</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G13" s="6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C14" s="1">
         <v>305.8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D14" s="1">
         <v>315.3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E14" s="1">
         <v>6.75</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F14" s="1">
         <v>0.46</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G14" s="6">
         <v>3.11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C15" s="1">
         <v>483</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D15" s="1">
         <v>493</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E15" s="1">
         <v>9.49</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F15" s="1">
         <v>0.39</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G15" s="6">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8">
+      <c r="C16" s="8">
         <v>323</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D16" s="8">
         <v>335.2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E16" s="8">
         <v>5.08</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F16" s="8">
         <v>0.82</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G16" s="9">
         <v>3.78</v>
       </c>
     </row>

--- a/docs/resultados_instancia_pequeña.xlsx
+++ b/docs/resultados_instancia_pequeña.xlsx
@@ -8,19 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\Documents\resolucion_problemas_metaheuristicas_trabajo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D368103-3EA3-4DCA-A1E9-E7FB2A2EF861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE3AC7-3919-4E41-8DE5-2C63273D760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="small" sheetId="1" r:id="rId1"/>
+    <sheet name="medium" sheetId="2" r:id="rId2"/>
+    <sheet name="large" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>Tamaño (NxM)</t>
   </si>
@@ -80,19 +95,320 @@
   </si>
   <si>
     <t>Gap % (VNS+Tabú)</t>
+  </si>
+  <si>
+    <t>LB Medio</t>
+  </si>
+  <si>
+    <t>783.08</t>
+  </si>
+  <si>
+    <t>770.0</t>
+  </si>
+  <si>
+    <t>574.60</t>
+  </si>
+  <si>
+    <t>561.0</t>
+  </si>
+  <si>
+    <t>405.80</t>
+  </si>
+  <si>
+    <t>386.2</t>
+  </si>
+  <si>
+    <t>856.76</t>
+  </si>
+  <si>
+    <t>841.4</t>
+  </si>
+  <si>
+    <t>602.48</t>
+  </si>
+  <si>
+    <t>589.0</t>
+  </si>
+  <si>
+    <t>429.48</t>
+  </si>
+  <si>
+    <t>412.0</t>
+  </si>
+  <si>
+    <t>931.68</t>
+  </si>
+  <si>
+    <t>917.8</t>
+  </si>
+  <si>
+    <t>648.80</t>
+  </si>
+  <si>
+    <t>633.6</t>
+  </si>
+  <si>
+    <t>455.80</t>
+  </si>
+  <si>
+    <t>437.2</t>
+  </si>
+  <si>
+    <t>935.88</t>
+  </si>
+  <si>
+    <t>918.6</t>
+  </si>
+  <si>
+    <t>671.72</t>
+  </si>
+  <si>
+    <t>657.0</t>
+  </si>
+  <si>
+    <t>493.80</t>
+  </si>
+  <si>
+    <t>476.8</t>
+  </si>
+  <si>
+    <t>980.72</t>
+  </si>
+  <si>
+    <t>966.2</t>
+  </si>
+  <si>
+    <t>683.44</t>
+  </si>
+  <si>
+    <t>668.6</t>
+  </si>
+  <si>
+    <t>516.72</t>
+  </si>
+  <si>
+    <t>499.0</t>
+  </si>
+  <si>
+    <t>1072.72</t>
+  </si>
+  <si>
+    <t>1053.4</t>
+  </si>
+  <si>
+    <t>710.96</t>
+  </si>
+  <si>
+    <t>696.2</t>
+  </si>
+  <si>
+    <t>506.36</t>
+  </si>
+  <si>
+    <t>490.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 x 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 x 2 </t>
+  </si>
+  <si>
+    <t>15 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 x 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 x 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 x 4 </t>
+  </si>
+  <si>
+    <t>17 x 2</t>
+  </si>
+  <si>
+    <t>17 x 3</t>
+  </si>
+  <si>
+    <t>17 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 x 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 x 3 </t>
+  </si>
+  <si>
+    <t>18 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 x 2 </t>
+  </si>
+  <si>
+    <t>19 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 x 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 x 2 </t>
+  </si>
+  <si>
+    <t>20 x 3</t>
+  </si>
+  <si>
+    <t>20 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">782.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">770.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">574.36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">561.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">404.44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">386.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">855.96 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">841.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">602.56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">589.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">429.92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">412.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">931.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">917.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">648.76 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">633.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">454.80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">437.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">935.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">918.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">671.92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">657.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">493.16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">476.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">981.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">966.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">683.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">668.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">518.36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">499.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1071.80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1053.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">711.68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">696.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">504.44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.2 </t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON GRASP </t>
+  </si>
+  <si>
+    <t>Gap % (GRAS^+VNS+Tabú)</t>
+  </si>
+  <si>
+    <t>Gap % (random+VNS+Tabú)</t>
+  </si>
+  <si>
+    <t>Con Random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -246,11 +562,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -261,9 +593,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,17 +927,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,4 +1245,878 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CECCAA-1AAE-46CD-A4F4-2379C2007C9F}">
+  <dimension ref="B2:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="15">
+        <v>6140</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.678E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="15">
+        <v>9748</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2.366E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="15">
+        <v>12470</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="18">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="15">
+        <v>7396</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1.7340000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="15">
+        <v>10724</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2.3060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="15">
+        <v>13280</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4.3520000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="15">
+        <v>7942</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="15">
+        <v>11528</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="15">
+        <v>19244</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4.0079999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="15">
+        <v>9084</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.8339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="15">
+        <v>14976</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2.274E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="15">
+        <v>19140</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="18">
+        <v>3.4320000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="15">
+        <v>1231884</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.5440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15">
+        <v>16046</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2.1860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="15">
+        <v>20758</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="18">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="15">
+        <v>10694</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="15">
+        <v>14980</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2.2179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="17">
+        <v>24534</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2.9180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="12"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="12"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11">
+        <v>6888</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="20">
+        <v>1.704E-2</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1.678E-2</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="11">
+        <v>11218</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2.41E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2.366E-2</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11">
+        <v>32814</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="20">
+        <v>5.0720000000000001E-2</v>
+      </c>
+      <c r="G31" s="18">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11">
+        <v>20110</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="20">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1.7340000000000001E-2</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="11">
+        <v>34298</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="20">
+        <v>2.2919999999999999E-2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>2.3060000000000001E-2</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="11">
+        <v>41780</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="20">
+        <v>4.2380000000000001E-2</v>
+      </c>
+      <c r="G34" s="18">
+        <v>4.3520000000000003E-2</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="11">
+        <v>23008</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="20">
+        <v>1.516E-2</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="11">
+        <v>15986</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="20">
+        <v>2.3980000000000001E-2</v>
+      </c>
+      <c r="G36" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11">
+        <v>18532</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="20">
+        <v>4.2340000000000003E-2</v>
+      </c>
+      <c r="G37" s="18">
+        <v>4.0079999999999998E-2</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="11">
+        <v>10510</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1.8939999999999999E-2</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1.8339999999999999E-2</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="11">
+        <v>14392</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="20">
+        <v>2.2419999999999999E-2</v>
+      </c>
+      <c r="G39" s="18">
+        <v>2.274E-2</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="11">
+        <v>18258</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="20">
+        <v>3.5659999999999997E-2</v>
+      </c>
+      <c r="G40" s="18">
+        <v>3.4320000000000003E-2</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="11">
+        <v>10166</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1.52E-2</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1.5440000000000001E-2</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="11">
+        <v>15972</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="20">
+        <v>2.2239999999999999E-2</v>
+      </c>
+      <c r="G42" s="18">
+        <v>2.1860000000000001E-2</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="11">
+        <v>21636</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="20">
+        <v>3.5319999999999997E-2</v>
+      </c>
+      <c r="G43" s="18">
+        <v>3.85E-2</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="11">
+        <v>11146</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="11">
+        <v>17088</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G45" s="18">
+        <v>2.2179999999999998E-2</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="11">
+        <v>176324</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="20">
+        <v>3.3079999999999998E-2</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2.9180000000000001E-2</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="12"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="12"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49" s="12"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F50" s="12"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F51" s="12"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="12"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G53" s="12"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="12"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="12"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="12"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="12"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="12"/>
+      <c r="H58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958EF09-8EE2-4197-B8A3-7C652B72B382}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>